--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
@@ -750,42 +750,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.69921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="45.54296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="45.546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -268,8 +268,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -279,10 +279,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -321,13 +321,13 @@
 </t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -346,7 +346,7 @@
     <t>MedicationRequestに投与期間の開始日を明示するための拡張</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -360,13 +360,13 @@
 user content</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extension.value[x].start</t>
@@ -385,7 +385,7 @@
     <t>明示された投与期間の開始日</t>
   </si>
   <si>
-    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+    <t>低要素が欠落している場合、意味は低い境界が知られていないことです。 / If the low element is missing, the meaning is that the low boundary is not known.</t>
   </si>
   <si>
     <t>Period.start</t>
@@ -401,16 +401,16 @@
     <t>Extension.value[x].end</t>
   </si>
   <si>
-    <t>End time with inclusive boundary, if not ongoing</t>
-  </si>
-  <si>
-    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
-  </si>
-  <si>
-    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
-  </si>
-  <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
+    <t>継続していない場合、包括的境界で終了時間 / End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
+    <t>期間の終わり。期間の終了が欠落している場合、インスタンスが作成された時点で終了がわかっていないか、計画されていないことを意味します。スタートは過去の可能性があり、将来の終了日です。つまり、その期間はその時点で終了すると予想される/計画されています。 / The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>高い値には、一致する日付/時間が含まれます。つまり、2012-02-03T10：00：00は、2012-02-03の終了値を持つ期間です。 / The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>期間の終了が欠落している場合、それは期間が進行中であることを意味します / If the end of the period is missing, it means that the period is ongoing</t>
   </si>
   <si>
     <t>Period.end</t>
@@ -760,7 +760,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="45.546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.33203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
@@ -268,8 +268,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -279,10 +279,10 @@
 </t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -321,13 +321,13 @@
 </t>
   </si>
   <si>
-    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -346,7 +346,7 @@
     <t>MedicationRequestに投与期間の開始日を明示するための拡張</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -360,13 +360,13 @@
 user content</t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extension.value[x].start</t>
@@ -385,7 +385,7 @@
     <t>明示された投与期間の開始日</t>
   </si>
   <si>
-    <t>低要素が欠落している場合、意味は低い境界が知られていないことです。 / If the low element is missing, the meaning is that the low boundary is not known.</t>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
   </si>
   <si>
     <t>Period.start</t>
@@ -401,16 +401,16 @@
     <t>Extension.value[x].end</t>
   </si>
   <si>
-    <t>継続していない場合、包括的境界で終了時間 / End time with inclusive boundary, if not ongoing</t>
-  </si>
-  <si>
-    <t>期間の終わり。期間の終了が欠落している場合、インスタンスが作成された時点で終了がわかっていないか、計画されていないことを意味します。スタートは過去の可能性があり、将来の終了日です。つまり、その期間はその時点で終了すると予想される/計画されています。 / The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
-  </si>
-  <si>
-    <t>高い値には、一致する日付/時間が含まれます。つまり、2012-02-03T10：00：00は、2012-02-03の終了値を持つ期間です。 / The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
-  </si>
-  <si>
-    <t>期間の終了が欠落している場合、それは期間が進行中であることを意味します / If the end of the period is missing, it means that the period is ongoing</t>
+    <t>End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
   </si>
   <si>
     <t>Period.end</t>
@@ -760,7 +760,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.33203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="45.546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
@@ -258,7 +258,7 @@
     <t>投与期間の開始日を明示するための拡張</t>
   </si>
   <si>
-    <t>MedcationRequestの投与期間の開始日を明示するための拡張</t>
+    <t>MedicationRequestの投与期間の開始日を明示するための拡張</t>
   </si>
   <si>
     <t>*</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
@@ -252,16 +252,13 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>*</t>
   </si>
   <si>
     <t>投与期間の開始日を明示するための拡張</t>
   </si>
   <si>
     <t>MedicationRequestの投与期間の開始日を明示するための拡張</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -986,13 +986,13 @@
         <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AH2" t="s" s="2">
+      <c r="AI2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>77</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1011,7 +1011,7 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>77</v>
@@ -1086,7 +1086,7 @@
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
@@ -1186,13 +1186,13 @@
         <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>77</v>
@@ -1208,10 +1208,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
@@ -1285,10 +1285,10 @@
         <v>98</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
@@ -1313,7 +1313,7 @@
         <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -1388,7 +1388,7 @@
         <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
@@ -1413,7 +1413,7 @@
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
@@ -1488,7 +1488,7 @@
         <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>77</v>
@@ -1513,7 +1513,7 @@
         <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>77</v>
@@ -1590,13 +1590,13 @@
         <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>90</v>
@@ -1612,10 +1612,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -1692,7 +1692,7 @@
         <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>122</v>
@@ -1717,7 +1717,7 @@
         <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>77</v>
@@ -1796,7 +1796,7 @@
         <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>122</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
